--- a/tik/ULANGAN HARIAN.xlsx
+++ b/tik/ULANGAN HARIAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rezawp\tugas\tik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09031F19-B5D0-468E-A47B-3FEB14781594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9321D9-A96C-4DE7-BD75-06A9E5D975D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="16200" windowHeight="9360" xr2:uid="{0DEA399E-AF0A-40E6-94BD-277DD82698F5}"/>
   </bookViews>
@@ -127,9 +127,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -183,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -204,7 +203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,30 +543,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -831,80 +829,80 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1">
         <f>COUNT(A5:A11)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="9">
         <f>SUM(I5:I11)</f>
         <v>25260171.348314606</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9">
         <f>AVERAGE(I5:I11)</f>
         <v>3608595.9069020865</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="9">
         <f>MAX(I5:I11)</f>
         <v>9941293.820224721</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="9">
         <f>MIN(I5:I11)</f>
         <v>298584.26966292138</v>
